--- a/기획서/레벨 디자인 관련/리볼트데이_사건_레벨디자인_팝업문구(설명).xlsx
+++ b/기획서/레벨 디자인 관련/리볼트데이_사건_레벨디자인_팝업문구(설명).xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="정책" sheetId="2" r:id="rId1"/>
+    <sheet name="팝업문구" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
   <si>
     <t>reasoningID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,204 +122,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>고층 건물이다. 자본주의의 산물인 것 마냥 화려하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로그램 컴퓨터 가게이다. 사람들이 앞에서 주인장과 사소한 다툼중이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장이다. 낡은 책들이 가득하다. 그 중에는 지하로, 라는 책이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨져있는 창문이다. 찬 공기가 안으로 들어오고 있다. 바로 밖으로 나갈 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분이다. 화분 아래 찬 공기가 들어오고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분이다. 기존의 화분과는 차원이 다를 정도로 가볍다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로그램 컴퓨터다. 작동해서 자료를 찾아볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 위에는 식칼이 꽂혀져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 위에 책이 있다. "고스톱 특강, 당신도 타짜가 될 수 있다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헝겊더미이다. 아래에는 폐물건들이 가득하다. 뒤짚어볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별다른 내용이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 창문일 뿐이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품이 전부 비어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 것도 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 것도 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인터 클릭 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망가진 인형이다. 안에는 무언가가 들어있었던 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄파편이다. 어디에 들어있던 걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구멍 뚫린 바닥이다. 폭발의 흔적이겠지. 안에 뭐라도 있는걸까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 죽어있다. 형태를 알아보기 힘들다. 경찰증이 발견되었다. 고인의 명복을.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 죽어있다. 형태를 알아보기 힘들다. 경찰증이 발견되었다. 고인의 명복을.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 죽어있다. 형태를 알아보기 힘들다. 근처에 스프링과 인형 눈알이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부숴진 안내센터이다. 안에는 스프링과 폭탄파편이 가득하다. 타버린 솜도 발견되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 유리조각이다. 유리 곳곳에 솜털이 붙여져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노숙자가 주변을 응시하며 구걸을 하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행인이 길을 거닐고 있다. 초조해보이는데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 기댄 행인이다. 여유로워보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물 위에 옥상이 보인다. 어디든 볼 수 있을 것 같다. 옥상에 사람이 보이진 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행인이 길을 거닐고 있다. 주변을 두리번거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행인이 길을 거닐고 있다. 분주해보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주머니에 손을 넣은 행인이다. 여유로워보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰을 손에 쥐고 있는 행인이다. 후드를 쓰고 있고 뭐가 원인인지 즐거워보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친사람같다. 그냥 의미없이 폭소를 터트리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물 위에 옥상이 보인다. 위에는 경찰들이 서성거리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물 입구이다. 유리 문에는 분주한 직장인이 얼핏 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물이다. 화려한 홀로그램 간판과 반짝거리는 사이버 LED가 조명을 발하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨홀이다. 누군가가 지나간 흔적이 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당이다. 험상궂은 사람들이 식사를 하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물 위에는 누군가가 감시를 하는 듯 두리번거리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘 차 안에는 험상 궂은 사람이 주변을 응시하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물 매장이다. 첨단 장비가 구축되어 있는 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘 차 안에는 아무도 없다. 정차중인 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV가 보인다. 24시간 작동중이니 주변은 모두 꿰뚫고 있겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물이다. 이 근방에서 가장 비싸보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물의 유리창이 깨져있다. 전에는 이러지 않았는데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고층 건물의 입구이다. 보안 문제인지 전과 다르게 도어락이 걸려있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨홀 뚜껑이다. 살짝 열려있는 듯 한데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원진씨다. 날 쫒아온 거 같은데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reasoningID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>행인들이 지나가는 길목이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고층 건물이다. 자본주의의 산물인 것 마냥 화려하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀로그램 컴퓨터 가게이다. 사람들이 앞에서 주인장과 사소한 다툼중이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책장이다. 낡은 책들이 가득하다. 그 중에는 지하로, 라는 책이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨져있는 창문이다. 찬 공기가 안으로 들어오고 있다. 바로 밖으로 나갈 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화분이다. 화분 아래 찬 공기가 들어오고있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화분이다. 기존의 화분과는 차원이 다를 정도로 가볍다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀로그램 컴퓨터다. 작동해서 자료를 찾아볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 위에는 식칼이 꽂혀져 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 위에 책이 있다. "고스톱 특강, 당신도 타짜가 될 수 있다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헝겊더미이다. 아래에는 폐물건들이 가득하다. 뒤짚어볼까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별다른 내용이 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨진 창문일 뿐이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부품이 전부 비어있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 것도 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 것도 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인터 클릭 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>망가진 인형이다. 안에는 무언가가 들어있었던 듯 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭탄파편이다. 어디에 들어있던 걸까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구멍 뚫린 바닥이다. 폭발의 흔적이겠지. 안에 뭐라도 있는걸까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 죽어있다. 형태를 알아보기 힘들다. 경찰증이 발견되었다. 고인의 명복을.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 죽어있다. 형태를 알아보기 힘들다. 경찰증이 발견되었다. 고인의 명복을.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 죽어있다. 형태를 알아보기 힘들다. 근처에 스프링과 인형 눈알이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부숴진 안내센터이다. 안에는 스프링과 폭탄파편이 가득하다. 타버린 솜도 발견되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨진 유리조각이다. 유리 곳곳에 솜털이 붙여져 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노숙자가 주변을 응시하며 구걸을 하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행인이 길을 거닐고 있다. 초조해보이는데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽에 기댄 행인이다. 여유로워보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물 위에 옥상이 보인다. 어디든 볼 수 있을 것 같다. 옥상에 사람이 보이진 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행인이 길을 거닐고 있다. 주변을 두리번거린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행인이 길을 거닐고 있다. 분주해보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주머니에 손을 넣은 행인이다. 여유로워보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마트폰을 손에 쥐고 있는 행인이다. 후드를 쓰고 있고 뭐가 원인인지 즐거워보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미친사람같다. 그냥 의미없이 폭소를 터트리고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물 위에 옥상이 보인다. 위에는 경찰들이 서성거리고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물 입구이다. 유리 문에는 분주한 직장인이 얼핏 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물이다. 화려한 홀로그램 간판과 반짝거리는 사이버 LED가 조명을 발하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨홀이다. 누군가가 지나간 흔적이 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식당이다. 험상궂은 사람들이 식사를 하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물 위에는 누군가가 감시를 하는 듯 두리번거리고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘 차 안에는 험상 궂은 사람이 주변을 응시하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물 매장이다. 첨단 장비가 구축되어 있는 듯 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘 차 안에는 아무도 없다. 정차중인 듯 하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV가 보인다. 24시간 작동중이니 주변은 모두 꿰뚫고 있겠지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물이다. 이 근방에서 가장 비싸보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물의 유리창이 깨져있다. 전에는 이러지 않았는데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고층 건물의 입구이다. 보안 문제인지 전과 다르게 도어락이 걸려있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨홀 뚜껑이다. 살짝 열려있는 듯 한데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강원진씨다. 날 쫒아온 거 같은데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리넘버를 뜻한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨디자인 문서에 기록된 번호를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI에 뜨는 텍스트를 표현한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답 유무를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 방법을 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true = 정답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false = 오답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done = 모두 다 클릭해야 하는 이벤트에서 사용됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -486,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -507,6 +559,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -787,10 +854,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,12 +937,13 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -811,11 +951,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -825,11 +968,14 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -837,11 +983,14 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -849,11 +998,14 @@
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -861,11 +1013,14 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="6">
         <v>5</v>
@@ -873,11 +1028,14 @@
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>2</v>
       </c>
@@ -887,11 +1045,14 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="4">
         <v>2</v>
@@ -899,11 +1060,14 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="4">
         <v>3</v>
@@ -911,11 +1075,14 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="4">
         <v>4</v>
@@ -923,11 +1090,14 @@
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="4">
         <v>5</v>
@@ -935,11 +1105,14 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="4">
         <v>6</v>
@@ -947,11 +1120,14 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="6">
         <v>7</v>
@@ -959,11 +1135,14 @@
       <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>3</v>
       </c>
@@ -973,11 +1152,14 @@
       <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="8">
         <v>2</v>
@@ -985,11 +1167,14 @@
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="8">
         <v>3</v>
@@ -997,11 +1182,14 @@
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="8">
         <v>4</v>
@@ -1009,11 +1197,14 @@
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="8">
         <v>5</v>
@@ -1021,11 +1212,14 @@
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="12">
         <v>6</v>
@@ -1033,11 +1227,14 @@
       <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>4</v>
       </c>
@@ -1047,11 +1244,14 @@
       <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="8">
         <v>2</v>
@@ -1059,11 +1259,14 @@
       <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="8">
         <v>3</v>
@@ -1071,11 +1274,14 @@
       <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="8">
         <v>4</v>
@@ -1083,11 +1289,14 @@
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="8">
         <v>5</v>
@@ -1095,11 +1304,14 @@
       <c r="C24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="8">
         <v>6</v>
@@ -1107,11 +1319,14 @@
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="8">
         <v>7</v>
@@ -1119,11 +1334,14 @@
       <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="8">
         <v>8</v>
@@ -1131,47 +1349,59 @@
       <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="8">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="D28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="8">
         <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="D29" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="12">
         <v>11</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D30" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>5</v>
       </c>
@@ -1179,109 +1409,136 @@
         <v>1</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="D31" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="8">
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="D32" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="8">
         <v>3</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D33" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="8">
         <v>4</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D34" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
       <c r="B35" s="8">
         <v>5</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D35" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="8">
         <v>6</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D36" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="8">
         <v>7</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D37" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="8">
         <v>8</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D38" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
       <c r="B39" s="12">
         <v>9</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D39" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>6</v>
       </c>
@@ -1289,73 +1546,91 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="8">
         <v>2</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="8">
         <v>3</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="8">
         <v>4</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="8">
         <v>5</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
       <c r="B45" s="12">
         <v>6</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>7</v>
       </c>
@@ -1363,109 +1638,136 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="8">
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D47" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="8">
         <v>3</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D48" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="8">
         <v>4</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D49" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="8">
         <v>5</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D50" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="8">
         <v>6</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D51" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="8">
         <v>7</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D52" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="8">
         <v>8</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D53" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="12">
         <v>9</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D54" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>8</v>
       </c>
@@ -1473,157 +1775,196 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="D55" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="8">
         <v>2</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D56" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="8">
         <v>3</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D57" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="8">
         <v>4</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="D58" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="8">
         <v>5</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="D59" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="8">
         <v>6</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="D60" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
       <c r="B61" s="8">
         <v>7</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D61" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="8">
         <v>8</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D62" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="8">
         <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="D63" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="8">
         <v>10</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="D64" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="8">
         <v>11</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D65" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="8">
         <v>12</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="D66" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17"/>
       <c r="B67" s="12">
         <v>13</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="D67" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>9</v>
       </c>
@@ -1631,197 +1972,234 @@
         <v>1</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D68" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="8">
         <v>2</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="D69" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="8">
         <v>3</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="D70" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="8">
         <v>4</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="D71" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="8">
         <v>5</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="D72" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
       <c r="B73" s="8">
         <v>6</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D73" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="16"/>
       <c r="B74" s="8">
         <v>7</v>
       </c>
       <c r="C74" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
+        <v>10</v>
+      </c>
+      <c r="B75" s="10">
+        <v>1</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="8">
+        <v>2</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="17"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="15">
-        <v>10</v>
-      </c>
-      <c r="B76" s="10">
-        <v>1</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="D77" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="16"/>
       <c r="B78" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="D78" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="16"/>
       <c r="B79" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D79" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="16"/>
       <c r="B80" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="8">
-        <v>6</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="17"/>
-      <c r="B82" s="12">
+        <v>58</v>
+      </c>
+      <c r="D80" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="17"/>
+      <c r="B81" s="12">
         <v>7</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+      <c r="C81" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>11</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B82" s="18">
         <v>1</v>
       </c>
-      <c r="C83" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" s="8"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
